--- a/data/performance_sheets_option2/window3/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option2/window3/BA47 Overall Model Peformance Results.xlsx
@@ -1798,53 +1798,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.01281689573079348</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.0925532653927803</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1183720976114273</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1132117296519821</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>12.23139688372612</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.01618275046348572</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.1071988120675087</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.1379029452800751</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.127211439986684</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>14.72889184951782</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.01302359439432621</v>
+        <v>0.0210088025778532</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.09805343300104141</v>
+        <v>0.1191018521785736</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1293996572494507</v>
+        <v>0.1518351137638092</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1141209638687223</v>
+        <v>0.1449441360588734</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>14.73270356655121</v>
+        <v>15.93685746192932</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -3077,23 +3077,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07563503086566925</v>
+        <v>0.07264487445354462</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2362836003303528</v>
+        <v>0.2331793159246445</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08935221284627914</v>
+        <v>0.08358174562454224</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2750182373328526</v>
+        <v>0.2695271312011921</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>8.349660784006119</v>
+        <v>8.522087335586548</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -3107,23 +3107,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.08871381729841232</v>
+        <v>0.06280169636011124</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2350603044033051</v>
+        <v>0.2022973895072937</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.08514802157878876</v>
+        <v>0.07621831446886063</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2978486483071768</v>
+        <v>0.2506026663068676</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>8.782973885536194</v>
+        <v>7.292462140321732</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -4393,19 +4393,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06826788187026978</v>
+        <v>0.1272600889205933</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.210546463727951</v>
+        <v>0.297924667596817</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0770694836974144</v>
+        <v>0.1099778562784195</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2612812313777432</v>
+        <v>0.3567353205397431</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.389594614505768</v>
+        <v>10.62337309122086</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -4419,23 +4419,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.0727536752820015</v>
+        <v>0.04377743601799011</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2435249537229538</v>
+        <v>0.1665138155221939</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.08651880919933319</v>
+        <v>0.05986662209033966</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.26972889218992</v>
+        <v>0.2092305809818204</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>7.761996984481812</v>
+        <v>6.070364639163017</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -5701,23 +5701,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01710601896047592</v>
+        <v>0.03705678507685661</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1128939241170883</v>
+        <v>0.1579838246107101</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.03910858184099197</v>
+        <v>0.05443144217133522</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1307899803519976</v>
+        <v>0.1925013898050001</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>5.344105511903763</v>
+        <v>5.566664412617683</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -5735,19 +5735,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03316595032811165</v>
+        <v>0.05089017003774643</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1695301979780197</v>
+        <v>0.1705498844385147</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.06016606092453003</v>
+        <v>0.05750125646591187</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1821152116878534</v>
+        <v>0.2255884971308298</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>5.747869610786438</v>
+        <v>6.036223098635674</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -7015,19 +7015,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1010225191712379</v>
+        <v>0.05056529119610786</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2568617165088654</v>
+        <v>0.1850549727678299</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7604866623878479</v>
+        <v>0.4761934876441956</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3178403988973679</v>
+        <v>0.2248672746224045</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>39.75260853767395</v>
+        <v>33.62641334533691</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -7041,23 +7041,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1731240004301071</v>
+        <v>0.06258589774370193</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3460411429405212</v>
+        <v>0.1923695355653763</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.5483620762825012</v>
+        <v>0.5866785645484924</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.4160817232589136</v>
+        <v>0.2501717365005526</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>73.53169918060303</v>
+        <v>33.91199707984924</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -8321,53 +8321,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.06867848336696625</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1620140224695206</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.6730981469154358</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2620657996896318</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>26.77874863147736</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.03989148139953613</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.1319288164377213</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.5055116415023804</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.1997285192443386</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>37.81623244285583</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.09770938754081726</v>
+        <v>0.0479234978556633</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2861487865447998</v>
+        <v>0.1118385940790176</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.5719894766807556</v>
+        <v>0.5450823903083801</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3125850085029947</v>
+        <v>0.2189143619218787</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>59.51429009437561</v>
+        <v>20.26525139808655</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -9631,23 +9631,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 32}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.09318789094686508</v>
+        <v>0.06393769383430481</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.251111626625061</v>
+        <v>0.1751342117786407</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4977598190307617</v>
+        <v>0.5652955174446106</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3052669175440815</v>
+        <v>0.2528590394553946</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>53.22149991989136</v>
+        <v>29.17382121086121</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -9665,19 +9665,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.0152616985142231</v>
+        <v>0.04386447370052338</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.09112664312124252</v>
+        <v>0.1122491359710693</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2746501266956329</v>
+        <v>0.4656801223754883</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1235382471715667</v>
+        <v>0.2094384723505292</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>43.00444722175598</v>
+        <v>21.18023633956909</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -10941,53 +10941,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.3540653586387634</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.4510670304298401</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.241892084479332</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.595033913855978</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>19.99423801898956</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.4011031687259674</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.4697000682353973</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.2687566578388214</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.6333270629982327</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>21.13342136144638</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.3412782847881317</v>
+        <v>0.3575592935085297</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.4264578223228455</v>
+        <v>0.4557694792747498</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.194717675447464</v>
+        <v>0.252618283033371</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.5841902813194787</v>
+        <v>0.5979626188220545</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>24.9881386756897</v>
+        <v>19.4838359951973</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -12255,19 +12255,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3092012405395508</v>
+        <v>0.3649336099624634</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.420363187789917</v>
+        <v>0.3935155272483826</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2155449837446213</v>
+        <v>0.2268485277891159</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5560586664548541</v>
+        <v>0.6040973513950076</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>18.2791993021965</v>
+        <v>16.58695191144943</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -12281,23 +12281,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.2742016315460205</v>
+        <v>0.3865226805210114</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.327752411365509</v>
+        <v>0.4190912544727325</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1967358291149139</v>
+        <v>0.2454547733068466</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.5236426563468837</v>
+        <v>0.6217094824120116</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>16.57786220312119</v>
+        <v>17.47120469808578</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -13565,19 +13565,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2510305941104889</v>
+        <v>0.255151242017746</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3011811673641205</v>
+        <v>0.3226439952850342</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.172088623046875</v>
+        <v>0.1789292991161346</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5010295341698819</v>
+        <v>0.5051249766322647</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>16.062031686306</v>
+        <v>13.65553587675095</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -13591,23 +13591,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.3363469541072845</v>
+        <v>0.3120464086532593</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.4247056841850281</v>
+        <v>0.3639436364173889</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.208525612950325</v>
+        <v>0.1825496852397919</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.5799542689792744</v>
+        <v>0.5586111426146629</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>18.53390634059906</v>
+        <v>15.60633480548859</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -14619,23 +14619,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04601683467626572</v>
+        <v>0.04828537255525589</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1623940765857697</v>
+        <v>0.1839896887540817</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1979627311229706</v>
+        <v>0.2347228229045868</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.214515348346606</v>
+        <v>0.2197393286493246</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>20.00966668128967</v>
+        <v>25.12886524200439</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -15893,53 +15893,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.01190789323300123</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.08592894673347473</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1180657893419266</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1091232937232067</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>11.89703941345215</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.01014708261936903</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.0771094486117363</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.1043612435460091</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.1007327286405418</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>24.17596429586411</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.01156103610992432</v>
+        <v>0.009108913131058216</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.07679141312837601</v>
+        <v>0.07436900585889816</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.0974794402718544</v>
+        <v>0.102371484041214</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1075222586719806</v>
+        <v>0.09544062620843503</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>25.14051198959351</v>
+        <v>10.27852818369865</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -16915,23 +16915,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01193684712052345</v>
+        <v>0.01716261357069016</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.08057493716478348</v>
+        <v>0.1185814067721367</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1067984625697136</v>
+        <v>0.1790809631347656</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1092558791119428</v>
+        <v>0.1310061585219953</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>25.36650002002716</v>
+        <v>17.13212877511978</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -17941,19 +17941,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0234566405415535</v>
+        <v>0.01585992984473705</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1237539127469063</v>
+        <v>0.1052495762705803</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1661417335271835</v>
+        <v>0.1446386426687241</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1531556089131361</v>
+        <v>0.1259362133968504</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>30.85818886756897</v>
+        <v>14.70043808221817</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -18963,19 +18963,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03611280024051666</v>
+        <v>0.04489211738109589</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1491365879774094</v>
+        <v>0.1581143438816071</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05088578909635544</v>
+        <v>0.05345964059233665</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.190033681858024</v>
+        <v>0.2118775999984328</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>5.275947973132133</v>
+        <v>5.578451603651047</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -19985,19 +19985,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0514661893248558</v>
+        <v>0.05117416009306908</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1973633319139481</v>
+        <v>0.19448421895504</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07283051311969757</v>
+        <v>0.07241512089967728</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2268616083096825</v>
+        <v>0.2262170641067315</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.873316317796707</v>
+        <v>7.022520899772644</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -21003,23 +21003,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06706403940916061</v>
+        <v>0.06642120331525803</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.221207320690155</v>
+        <v>0.2212871611118317</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08298958092927933</v>
+        <v>0.08272695541381836</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2589672554767506</v>
+        <v>0.2577231136612664</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.801610976457596</v>
+        <v>8.084877580404282</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -22281,19 +22281,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01418458297848701</v>
+        <v>0.01420374307781458</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.105150930583477</v>
+        <v>0.1050339341163635</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1631299555301666</v>
+        <v>0.1546357572078705</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1190990469251833</v>
+        <v>0.1191794574489017</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>20.48969566822052</v>
+        <v>14.78481292724609</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -22311,19 +22311,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.01709839515388012</v>
+        <v>0.01239380892366171</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1156730949878693</v>
+        <v>0.09992359578609467</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.183189332485199</v>
+        <v>0.1468510329723358</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1307608318797342</v>
+        <v>0.1113274850325009</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>20.23723125457764</v>
+        <v>13.97263407707214</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -23551,53 +23551,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.03053893521428108</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1384026706218719</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.04734020307660103</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1747539276075965</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>4.860635474324226</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.03247176483273506</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.1423674076795578</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.04856833815574646</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.1801992364932079</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>5.261526629328728</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.03892681747674942</v>
+        <v>0.03407745063304901</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.150698333978653</v>
+        <v>0.1461411416530609</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.05112870037555695</v>
+        <v>0.04993113875389099</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1972988025223402</v>
+        <v>0.1846007871950957</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>5.460196733474731</v>
+        <v>5.140367895364761</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -24830,19 +24830,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06686654686927795</v>
+        <v>0.06415686011314392</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2210081219673157</v>
+        <v>0.2123559564352036</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08291810750961304</v>
+        <v>0.08022994548082352</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2585856664033758</v>
+        <v>0.2532920451043497</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.800295203924179</v>
+        <v>7.765202969312668</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -24856,23 +24856,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.06717643141746521</v>
+        <v>0.06286875158548355</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2210520207881927</v>
+        <v>0.211047351360321</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.08305496722459793</v>
+        <v>0.07947999238967896</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.259184165059259</v>
+        <v>0.2507364185464161</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>7.81451016664505</v>
+        <v>7.718848437070847</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -26105,19 +26105,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05213696882128716</v>
+        <v>0.05102121084928513</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1963644027709961</v>
+        <v>0.1925952881574631</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07267219573259354</v>
+        <v>0.07139845192432404</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2283352115230745</v>
+        <v>0.2258787525405724</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.889823079109192</v>
+        <v>6.958042830228806</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -26135,19 +26135,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.04710050672292709</v>
+        <v>0.05227043107151985</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1833703815937042</v>
+        <v>0.1966389715671539</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.06812570989131927</v>
+        <v>0.07275769859552383</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2170265115669675</v>
+        <v>0.2286272754321318</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>6.90399706363678</v>
+        <v>7.101069390773773</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -27378,53 +27378,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.02465183660387993</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1386799663305283</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1799302399158478</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1570090335104319</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>18.69126856327057</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.01893876306712627</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.1185399889945984</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.1487599462270737</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.137618178548934</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>16.99495911598206</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.01475554332137108</v>
+        <v>0.02029100246727467</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1020551547408104</v>
+        <v>0.1220085620880127</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1320540308952332</v>
+        <v>0.1774448305368423</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1214723973640558</v>
+        <v>0.1424464898383764</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>17.39876121282578</v>
+        <v>16.17254614830017</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -28692,23 +28692,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02352103590965271</v>
+        <v>0.0340394452214241</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.13908551633358</v>
+        <v>0.1680559515953064</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2277304232120514</v>
+        <v>0.2638488113880157</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1533656933921426</v>
+        <v>0.1844978190153588</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>23.83756041526794</v>
+        <v>23.84868264198303</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -28726,19 +28726,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.0403362549841404</v>
+        <v>0.0343606136739254</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1800137609243393</v>
+        <v>0.1633262783288956</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2699323892593384</v>
+        <v>0.2631617784500122</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2008388781688954</v>
+        <v>0.185366161081049</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>21.88391238451004</v>
+        <v>23.12334924936295</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -30008,19 +30008,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02683191373944283</v>
+        <v>0.02743694745004177</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1396563798189163</v>
+        <v>0.1419489234685898</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2236741334199905</v>
+        <v>0.223912313580513</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1638044985323749</v>
+        <v>0.1656410198291527</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>19.71428096294403</v>
+        <v>20.01020610332489</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -30034,23 +30034,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.0211572702974081</v>
+        <v>0.0248093493282795</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1261561214923859</v>
+        <v>0.1366299390792847</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1970605850219727</v>
+        <v>0.2180973440408707</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1454553893721649</v>
+        <v>0.1575098388300855</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>19.3708598613739</v>
+        <v>19.31075751781464</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">

--- a/data/performance_sheets_option2/window3/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option2/window3/BA47 Overall Model Peformance Results.xlsx
@@ -1736,23 +1736,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.02182132564485073</v>
+        <v>0.01739936880767345</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1215255782008171</v>
+        <v>0.1103539690375328</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1766349524259567</v>
+        <v>0.160321369767189</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.147720430695455</v>
+        <v>0.1319066670326919</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>17.6342248916626</v>
+        <v>15.6946986913681</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -1766,23 +1766,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.02358501404523849</v>
+        <v>0.02195267751812935</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1290779411792755</v>
+        <v>0.1223767697811127</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1860027313232422</v>
+        <v>0.1770309954881668</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1535741320836243</v>
+        <v>0.1481643598107499</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>17.68034249544144</v>
+        <v>17.39418059587479</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -3015,53 +3015,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1724896281957626</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2985257804393768</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1448453664779663</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.4153187067731992</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>12.10699081420898</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.1557768285274506</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.2445448040962219</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.1250478625297546</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.3946857338788046</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>11.81031540036201</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.2615345418453217</v>
+        <v>0.1895295232534409</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.38872030377388</v>
+        <v>0.2949280142784119</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1818051636219025</v>
+        <v>0.1466304361820221</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.5114044796883594</v>
+        <v>0.4353498860151922</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>13.02420645952225</v>
+        <v>11.9822733104229</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -4327,23 +4327,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.09862054139375687</v>
+        <v>0.1834346204996109</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.240453839302063</v>
+        <v>0.3586750626564026</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.09294289350509644</v>
+        <v>0.1424244940280914</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3140390762210284</v>
+        <v>0.4282926808849422</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>9.178503602743149</v>
+        <v>13.19847404956818</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -4361,19 +4361,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.1300544738769531</v>
+        <v>0.07419449836015701</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3041248023509979</v>
+        <v>0.2062943130731583</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.116034246981144</v>
+        <v>0.07990295439958572</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3606306613100904</v>
+        <v>0.2723866706726983</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>10.30083075165749</v>
+        <v>7.750660926103592</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -5639,53 +5639,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.0563512034714222</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2051762342453003</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.07384829223155975</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2373840842841453</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>7.424246519804001</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.05100316926836967</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.1975541412830353</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.07064361870288849</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.2258388125818272</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>6.719465553760529</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.0508338138461113</v>
+        <v>0.03951679542660713</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1979873031377792</v>
+        <v>0.1757783740758896</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.07083859294652939</v>
+        <v>0.06449549645185471</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2254635532544258</v>
+        <v>0.1987883181341578</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>6.674574315547943</v>
+        <v>6.348834931850433</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -6953,19 +6953,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04732059314846992</v>
+        <v>0.07252340763807297</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.166946068406105</v>
+        <v>0.1650125086307526</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.989974319934845</v>
+        <v>1.437147974967957</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2175329702561658</v>
+        <v>0.2693017037414969</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>45.53169906139374</v>
+        <v>30.38118183612823</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -6983,19 +6983,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.03570859879255295</v>
+        <v>0.06776273250579834</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1387288123369217</v>
+        <v>0.1829807758331299</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.039454579353333</v>
+        <v>1.376032710075378</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1889671897249704</v>
+        <v>0.2603127590146099</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>48.91899526119232</v>
+        <v>33.8833749294281</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -8259,23 +8259,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1034558117389679</v>
+        <v>0.1143805608153343</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2738983333110809</v>
+        <v>0.2474515736103058</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.8242794871330261</v>
+        <v>1.664409041404724</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3216454752347185</v>
+        <v>0.3382019527077487</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>64.12590146064758</v>
+        <v>43.51267516613007</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -8289,23 +8289,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.08459030091762543</v>
+        <v>0.08819790929555893</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2415217608213425</v>
+        <v>0.1953361481428146</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.122945547103882</v>
+        <v>1.606269359588623</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2908441179010252</v>
+        <v>0.2969813281934723</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>51.91234350204468</v>
+        <v>34.84745025634766</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -9569,53 +9569,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.06508120149374008</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1684978306293488</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1.410878539085388</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2551101752062039</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>30.87054193019867</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.1040347516536713</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.278137594461441</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.8478752970695496</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.3225441855834194</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>57.26633071899414</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.1819562762975693</v>
+        <v>0.1827818006277084</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3686144053936005</v>
+        <v>0.3086450397968292</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.521657347679138</v>
+        <v>1.236154079437256</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.4265633321062293</v>
+        <v>0.4275298827306793</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>77.12540626525879</v>
+        <v>81.69618844985962</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -10883,19 +10883,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.598970353603363</v>
+        <v>0.645608127117157</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4544859826564789</v>
+        <v>0.4758868813514709</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.623808741569519</v>
+        <v>0.6332888007164001</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.7739317499646613</v>
+        <v>0.8034974344185282</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>21.21414989233017</v>
+        <v>21.82567119598389</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -10913,19 +10913,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.5968477725982666</v>
+        <v>0.6353752017021179</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.4354190528392792</v>
+        <v>0.4519645273685455</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.6166651844978333</v>
+        <v>0.6123785972595215</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.7725592356565719</v>
+        <v>0.7971042602458714</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>21.59525156021118</v>
+        <v>20.96536606550217</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -12189,23 +12189,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.7112560868263245</v>
+        <v>0.6410868167877197</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.6273939609527588</v>
+        <v>0.4156483709812164</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.6721739768981934</v>
+        <v>0.6669223308563232</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.8433599983555803</v>
+        <v>0.8006789723651544</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>25.29447078704834</v>
+        <v>19.50695812702179</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -12219,23 +12219,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.589652955532074</v>
+        <v>0.627170205116272</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.4442609846591949</v>
+        <v>0.412813276052475</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.6372993588447571</v>
+        <v>0.6569355726242065</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.7678886348501806</v>
+        <v>0.7919407838445195</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>21.02387249469757</v>
+        <v>19.50479447841644</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -13499,23 +13499,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.6116008162498474</v>
+        <v>0.5170152187347412</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4581491351127625</v>
+        <v>0.3630540668964386</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3528106510639191</v>
+        <v>0.3167082965373993</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.7820491137069637</v>
+        <v>0.7190377032776106</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>23.4143927693367</v>
+        <v>17.15866923332214</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -13529,23 +13529,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.6168670058250427</v>
+        <v>0.6585911512374878</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.4414249360561371</v>
+        <v>0.6216625571250916</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3580378592014313</v>
+        <v>0.3642781674861908</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.7854088144559129</v>
+        <v>0.8115362907704669</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>20.41600346565247</v>
+        <v>30.89363276958466</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -14575,23 +14575,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.02343405783176422</v>
+        <v>0.02411475218832493</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1241863891482353</v>
+        <v>0.1305495798587799</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1851799637079239</v>
+        <v>0.1869530379772186</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1530818664367672</v>
+        <v>0.1552892532930883</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>18.20793896913528</v>
+        <v>18.62149685621262</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -15831,23 +15831,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.042580746114254</v>
+        <v>0.02103750593960285</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1631256937980652</v>
+        <v>0.0884322002530098</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3954533934593201</v>
+        <v>0.2778967320919037</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2063510264434224</v>
+        <v>0.1450431175189049</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>27.15272307395935</v>
+        <v>15.71995764970779</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -15861,23 +15861,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.0450158566236496</v>
+        <v>0.0315731093287468</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1707728356122971</v>
+        <v>0.1205312460660934</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.4213059544563293</v>
+        <v>0.3397062718868256</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2121694054845081</v>
+        <v>0.1776882363262881</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>27.44310200214386</v>
+        <v>20.16828209161758</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -16871,23 +16871,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.03241176530718803</v>
+        <v>0.03262022882699966</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1523459404706955</v>
+        <v>0.1430311650037766</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2730178534984589</v>
+        <v>0.2577663958072662</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1800326784425206</v>
+        <v>0.1806107107205984</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>22.74532169103622</v>
+        <v>21.9720721244812</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -17893,23 +17893,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04746369644999504</v>
+        <v>0.03938686475157738</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1714114993810654</v>
+        <v>0.1555476635694504</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4169318377971649</v>
+        <v>0.3765651881694794</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2178616452017083</v>
+        <v>0.1984612424418868</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>27.11731493473053</v>
+        <v>25.48383772373199</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -18915,23 +18915,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.0484604500234127</v>
+        <v>0.05078038200736046</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1819123774766922</v>
+        <v>0.1898811608552933</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.06531872600317001</v>
+        <v>0.06737072765827179</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2201373435458253</v>
+        <v>0.2253450288055196</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>6.417320668697357</v>
+        <v>6.87771737575531</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -19937,23 +19937,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.08648806065320969</v>
+        <v>0.08921346068382263</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2251783311367035</v>
+        <v>0.225472703576088</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.0894201248884201</v>
+        <v>0.09028817713260651</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2940885251981275</v>
+        <v>0.2986862244627673</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>8.647915720939636</v>
+        <v>8.523242175579071</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -20959,23 +20959,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1879487335681915</v>
+        <v>0.1922435015439987</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2885175347328186</v>
+        <v>0.2925156056880951</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1431523412466049</v>
+        <v>0.144730418920517</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.4335305451386229</v>
+        <v>0.4384558148137606</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>11.57032996416092</v>
+        <v>11.85370311141014</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -22215,23 +22215,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.03081794641911983</v>
+        <v>0.03068258427083492</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1456412225961685</v>
+        <v>0.1457339525222778</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2621458172798157</v>
+        <v>0.262952595949173</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1755504099087206</v>
+        <v>0.1751644492208248</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>22.59632349014282</v>
+        <v>22.25175946950912</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -22249,19 +22249,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.03032042644917965</v>
+        <v>0.02848780527710915</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1442531943321228</v>
+        <v>0.1386776864528656</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2575491368770599</v>
+        <v>0.2496126145124435</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1741276154123166</v>
+        <v>0.1687833086448691</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>22.5189208984375</v>
+        <v>21.24917954206467</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -23489,23 +23489,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04840594530105591</v>
+        <v>0.04692952334880829</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1812998950481415</v>
+        <v>0.180448904633522</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.0648455023765564</v>
+        <v>0.06473195552825928</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2200135116329356</v>
+        <v>0.2166322306324899</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>6.519623845815659</v>
+        <v>6.524310261011124</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -23519,23 +23519,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.04524091631174088</v>
+        <v>0.04206384345889091</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1771983653306961</v>
+        <v>0.1664751172065735</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.06359636038541794</v>
+        <v>0.06024700775742531</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2126991215584608</v>
+        <v>0.2050947182618093</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>6.431534141302109</v>
+        <v>6.016013398766518</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -24768,19 +24768,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2246700376272202</v>
+        <v>0.1849822849035263</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3051478862762451</v>
+        <v>0.3049384653568268</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1567075252532959</v>
+        <v>0.1430524438619614</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.4739937105355093</v>
+        <v>0.4300956694777643</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>12.56464421749115</v>
+        <v>12.36377060413361</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -24794,23 +24794,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.1905317902565002</v>
+        <v>0.1881921887397766</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2950126826763153</v>
+        <v>0.2760287225246429</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1452361941337585</v>
+        <v>0.1410861760377884</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.4364994733748258</v>
+        <v>0.4338112362995876</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>11.62009611725807</v>
+        <v>11.24662309885025</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -26043,19 +26043,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1021367758512497</v>
+        <v>0.1120880246162415</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2417663186788559</v>
+        <v>0.2354562431573868</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.09929504990577698</v>
+        <v>0.09945029020309448</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3195884476185735</v>
+        <v>0.3347954967084257</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>9.093394875526428</v>
+        <v>8.872614055871964</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -26069,23 +26069,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.09731539338827133</v>
+        <v>0.08949633687734604</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2447836846113205</v>
+        <v>0.2402492165565491</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.09676484018564224</v>
+        <v>0.09325114637613297</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3119541527023985</v>
+        <v>0.2991593837360714</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>8.775483816862106</v>
+        <v>9.081646800041199</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -27316,53 +27316,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.03417801856994629</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1621211022138596</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2390279024839401</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1848729795560895</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>22.9714572429657</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.02576276287436485</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.1326353996992111</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.1894523203372955</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.1605078280781497</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>17.68773943185806</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.02501379884779453</v>
+        <v>0.02888938039541245</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1314859837293625</v>
+        <v>0.1352366209030151</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1942200213670731</v>
+        <v>0.1897674053907394</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1581575127769609</v>
+        <v>0.1699687629990065</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>17.85176396369934</v>
+        <v>19.27059143781662</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -28634,19 +28634,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04289174452424049</v>
+        <v>0.05269794166088104</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1694130450487137</v>
+        <v>0.1953217536211014</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4090235829353333</v>
+        <v>0.433904230594635</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2071032219069527</v>
+        <v>0.2295603224881884</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>27.62193977832794</v>
+        <v>31.20788335800171</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -28660,23 +28660,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.03802632540464401</v>
+        <v>0.04810850322246552</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1525576412677765</v>
+        <v>0.1696216315031052</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3767023682594299</v>
+        <v>0.4238005578517914</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1950033984438323</v>
+        <v>0.2193365068165022</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>27.89429724216461</v>
+        <v>27.26119458675385</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -29942,23 +29942,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.03128920495510101</v>
+        <v>0.03228908404707909</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1455436646938324</v>
+        <v>0.1521541774272919</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2616454362869263</v>
+        <v>0.2714212834835052</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1768875488978832</v>
+        <v>0.1796916359964456</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>22.5464716553688</v>
+        <v>23.17832112312317</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -29972,23 +29972,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.0308541301637888</v>
+        <v>0.03297989815473557</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1427661031484604</v>
+        <v>0.1490799784660339</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2613181173801422</v>
+        <v>0.2681490480899811</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1756534376657309</v>
+        <v>0.1816036843093652</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>22.64316082000732</v>
+        <v>22.70784378051758</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">

--- a/data/performance_sheets_option2/window3/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option2/window3/BA47 Overall Model Peformance Results.xlsx
@@ -770,19 +770,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.04691346051182278</v>
+        <v>0.03098275708614396</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1865129431110523</v>
+        <v>0.1345085345116891</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2643682770640485</v>
+        <v>0.1797990992421733</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2165951534818422</v>
+        <v>0.176019195220703</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>31.91825104663497</v>
+        <v>19.46300214859709</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -800,19 +800,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.0288524161813012</v>
+        <v>0.03117394853389245</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1334341014862882</v>
+        <v>0.1419980679078272</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1803507468632584</v>
+        <v>0.1973562431169176</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.1698599899367158</v>
+        <v>0.1765614582344982</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>20.41689859926328</v>
+        <v>20.89496329383445</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -2049,19 +2049,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>2.151490204321804e-08</v>
+        <v>0.563989668305375</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0001149290634032826</v>
+        <v>0.6050020707591912</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4.49660728309747e-05</v>
+        <v>0.250376755295017</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.0001466795897295122</v>
+        <v>0.7509924555582266</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.004496634602316195</v>
+        <v>26.52580697347074</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -2079,19 +2079,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>1.54859876634327e-08</v>
+        <v>0.6025211658214754</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>9.622400243376651e-05</v>
+        <v>0.6066538112178462</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>3.910750176858316e-05</v>
+        <v>0.2556503810929618</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.0001244427083578331</v>
+        <v>0.7762223687974183</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.003910714390463805</v>
+        <v>27.14599183009396</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -3361,19 +3361,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>2.515470481186856e-08</v>
+        <v>0.3669741446728907</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0001085290845360099</v>
+        <v>0.4660231200039454</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.827987958348157e-05</v>
+        <v>0.1727462728139513</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.0001586023480654324</v>
+        <v>0.6057839092224971</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.00382811502566884</v>
+        <v>18.02691542229411</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -3391,19 +3391,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>2.482851004198971e-08</v>
+        <v>0.4835060654124726</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.0001064385411138787</v>
+        <v>0.4897680301519226</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>3.745256903489967e-05</v>
+        <v>0.1806851486826251</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.0001575706509537538</v>
+        <v>0.6953460040961424</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.003745373181580746</v>
+        <v>20.18527741693543</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -4673,19 +4673,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>7.021215941080112e-07</v>
+        <v>0.4433215424468767</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0007023216807098393</v>
+        <v>0.5708552006732649</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0002582451862575858</v>
+        <v>0.2121279089469113</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.0008379269622753591</v>
+        <v>0.6658239575494987</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.02582913566748826</v>
+        <v>25.00652885694351</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -4703,19 +4703,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>6.554230804551622e-07</v>
+        <v>0.4168784746538839</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.0006687757049799648</v>
+        <v>0.5472476230423133</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.0002482800141315288</v>
+        <v>0.2021769619747467</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.0008095820405957399</v>
+        <v>0.6456612692843546</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.02483249892048195</v>
+        <v>23.67559552856849</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -5983,19 +5983,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.06259979109947537</v>
+        <v>0.01926107829590986</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1531860723716411</v>
+        <v>0.09942345903022236</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.387247866103559</v>
+        <v>0.1338056038767039</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2501995025963788</v>
+        <v>0.1387842869200612</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>29.49183187031828</v>
+        <v>14.71414692364147</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -6013,19 +6013,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.0610690473509852</v>
+        <v>0.01958623205003894</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1560491118486841</v>
+        <v>0.1038061133648449</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>1.365485768840762</v>
+        <v>0.1396715610001706</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2471215234474432</v>
+        <v>0.1399508201120627</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>30.12491575558445</v>
+        <v>15.18774924299386</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -7293,19 +7293,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05118941941207775</v>
+        <v>0.01628485489803137</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1273370174838717</v>
+        <v>0.09496478459446893</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.321598690600179</v>
+        <v>0.1540408183477182</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.226250788754598</v>
+        <v>0.1276121267671352</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>25.40619142710907</v>
+        <v>15.55192190762534</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -7323,19 +7323,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.05123666249868927</v>
+        <v>0.01632941127840756</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1288673666514994</v>
+        <v>0.09475106205950076</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>1.320984477050705</v>
+        <v>0.1567278526708343</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2263551689241694</v>
+        <v>0.1277865848921848</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>25.61218087449124</v>
+        <v>15.59198430293306</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -8603,19 +8603,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.04000674610406073</v>
+        <v>0.03039417414469136</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1158203960128188</v>
+        <v>0.1249104029861712</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.22911721571609</v>
+        <v>0.2523922033975708</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2000168645491193</v>
+        <v>0.17433925015524</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>23.84267862627098</v>
+        <v>22.04587138245413</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -8633,19 +8633,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.03907460257366401</v>
+        <v>0.03036237131563837</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1136154213718629</v>
+        <v>0.1247897074141153</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>1.218614462923644</v>
+        <v>0.252117800290957</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.197672968748041</v>
+        <v>0.1742480166763409</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>23.39720696724434</v>
+        <v>22.03087689554467</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -9913,19 +9913,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.5571122454997858</v>
+        <v>0.2113255131626701</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3290837317365065</v>
+        <v>0.373130555570257</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5893408455031428</v>
+        <v>0.1329607055997786</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.7463995213689421</v>
+        <v>0.4597015479228563</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>16.50080709725727</v>
+        <v>14.1657266600943</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -9943,19 +9943,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.5836818109352441</v>
+        <v>0.1928721468812845</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.3127148779822719</v>
+        <v>0.3495385903618834</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.6026950289361571</v>
+        <v>0.1244362025035707</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.7639907139064218</v>
+        <v>0.439172115327561</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>15.77144523923839</v>
+        <v>13.53033922751493</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -11223,19 +11223,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.5155407986192199</v>
+        <v>0.223171839511746</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3006019845877088</v>
+        <v>0.371367614300916</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5959316637386596</v>
+        <v>0.1413642043835387</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.7180116981075029</v>
+        <v>0.472410668287398</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>15.26681300847411</v>
+        <v>15.08583435060929</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -11253,19 +11253,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.57239993670042</v>
+        <v>0.20199957143429</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.3089059745282263</v>
+        <v>0.3324475471469159</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.623098472661228</v>
+        <v>0.1263587920573767</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.7565711709419147</v>
+        <v>0.4494436243115369</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>15.64152761325156</v>
+        <v>13.50673027190282</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -12533,19 +12533,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.3874259376212871</v>
+        <v>0.2229140131546724</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.277711473863455</v>
+        <v>0.3541756080780334</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2593953539199083</v>
+        <v>0.151838766880737</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.6224354887225559</v>
+        <v>0.4721377057116625</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>14.13148955516599</v>
+        <v>15.1892837235934</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -12563,19 +12563,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.4287089854629551</v>
+        <v>0.3329011307212459</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.2854500612082672</v>
+        <v>0.3918314459511077</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.2737808281008971</v>
+        <v>0.1608660613368267</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.6547587230903877</v>
+        <v>0.5769758493396807</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>14.46699999592231</v>
+        <v>17.08925434764643</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -13843,19 +13843,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.1386605782654949</v>
+        <v>0.1239779984273855</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3124623015815098</v>
+        <v>0.2700361536234256</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4461094991200826</v>
+        <v>0.3857741693797568</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.3723715594208222</v>
+        <v>0.352105095713461</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>45.21348982288622</v>
+        <v>48.84502021247369</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -14865,19 +14865,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.032872352980105</v>
+        <v>0.03273117557743174</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1193170587321526</v>
+        <v>0.1257064520503097</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1710301538722946</v>
+        <v>0.2175013606752148</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1813073439773056</v>
+        <v>0.1809175933330745</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>18.84215654103123</v>
+        <v>21.69918585846215</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -14895,19 +14895,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.03241142083640991</v>
+        <v>0.03056095591397193</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.118477669977406</v>
+        <v>0.1165397114344599</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.15830141244492</v>
+        <v>0.1790653980621287</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.1800317217503902</v>
+        <v>0.1748169211317141</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>17.60310688830729</v>
+        <v>18.7322868933271</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -16139,19 +16139,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.2467826283452072</v>
+        <v>0.2259296198691152</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3885145806339769</v>
+        <v>0.3994213745820632</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6149863109339252</v>
+        <v>0.6949309772357419</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.4967722097150838</v>
+        <v>0.4753205443373085</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>74.62512569230748</v>
+        <v>61.01509009595573</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -17161,19 +17161,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.524633521049607</v>
+        <v>0.1181884301055577</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.9061769672805854</v>
+        <v>0.263682557078448</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.32264881857493</v>
+        <v>0.6261524469939328</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.234760511617377</v>
+        <v>0.3437854419628</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>108.378041188903</v>
+        <v>45.79182914756211</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -18183,19 +18183,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.086878532347104</v>
+        <v>3.550906062299529</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7143386181492122</v>
+        <v>1.304004217518093</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2690915174269093</v>
+        <v>0.4800791138254637</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.042534667215966</v>
+        <v>1.884384796770428</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>30.17736775151324</v>
+        <v>63.70369238720948</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -19205,19 +19205,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>13.47039894701384</v>
+        <v>6.929291472209757</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3.187357589496769</v>
+        <v>2.145603192834613</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.210081305327063</v>
+        <v>0.8229969750038781</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>3.670204210532956</v>
+        <v>2.632354739052044</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>124.4510893863021</v>
+        <v>91.5653413564839</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -20227,19 +20227,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>20.58693804808689</v>
+        <v>10.8467900123392</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3.58280649643121</v>
+        <v>2.660979836234757</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.40820257375256</v>
+        <v>1.23685460830496</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>4.537283113063024</v>
+        <v>3.29344652489443</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>101.8058318287787</v>
+        <v>91.3061774051198</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -21249,19 +21249,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.03318441325406175</v>
+        <v>0.03059809449925932</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1252566644950565</v>
+        <v>0.1266480691549654</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.168321046524123</v>
+        <v>0.2032830012941191</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1821658948707517</v>
+        <v>0.1749231102492158</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>18.32138605344867</v>
+        <v>20.63755080282857</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -21279,19 +21279,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.03796050833193025</v>
+        <v>0.02615616805087571</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1360457340208823</v>
+        <v>0.1139688665360085</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1916771712754864</v>
+        <v>0.1830358624993586</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.1948345665736197</v>
+        <v>0.1617286865428509</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>20.06547374668843</v>
+        <v>18.47503400918239</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -22523,19 +22523,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.1598974865623923</v>
+        <v>0.1844804259461474</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3031012090569072</v>
+        <v>0.3486379369538254</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.105392530394474</v>
+        <v>0.1244832377305674</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.3998718376710121</v>
+        <v>0.4295118461068884</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>11.41564632551585</v>
+        <v>13.24314325736896</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -22553,19 +22553,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.3044080361402861</v>
+        <v>0.1786813513902775</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.4577233799393349</v>
+        <v>0.3413369000438148</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1619838810195003</v>
+        <v>0.1223146258380136</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.5517318516637281</v>
+        <v>0.4227071697881141</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>18.28631078947365</v>
+        <v>13.4363749652801</v>
       </c>
     </row>
     <row r="8" ht="28.5" customHeight="1">
@@ -23798,19 +23798,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.2598561042740906</v>
+        <v>0.3161936410902922</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.393082015214089</v>
+        <v>0.4316364297772007</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1672503804963263</v>
+        <v>0.2201515474748739</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.5097608304627678</v>
+        <v>0.5623109825446166</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>15.93818039721589</v>
+        <v>18.77027984749002</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -23828,19 +23828,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.1486769443332642</v>
+        <v>0.2224879338492728</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.2709992587839502</v>
+        <v>0.3546982246546929</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1089293902373044</v>
+        <v>0.1518178089784719</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.3855864939715397</v>
+        <v>0.4716862663352335</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>11.06225236777087</v>
+        <v>15.20431011501121</v>
       </c>
     </row>
     <row r="8" ht="28.5" customHeight="1">
@@ -25073,19 +25073,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.1934730861495593</v>
+        <v>0.1867499245041501</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3508298263297101</v>
+        <v>0.3152026029584383</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1257689352277472</v>
+        <v>0.1210780969038256</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.4398557560718733</v>
+        <v>0.4321457213766557</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>13.53529625332182</v>
+        <v>12.77755325252691</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -25103,19 +25103,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.1522180623770018</v>
+        <v>0.2154415627506814</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.286408596400033</v>
+        <v>0.3657175233533907</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1002288701696343</v>
+        <v>0.1393619083607081</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.3901513326608046</v>
+        <v>0.4641568299084711</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>10.95373872239175</v>
+        <v>14.8487868294915</v>
       </c>
     </row>
     <row r="8" ht="28.5" customHeight="1">
@@ -26350,19 +26350,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.0001396594965973927</v>
+        <v>0.03666660172407907</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.009484259124140394</v>
+        <v>0.1630022134702198</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.01317203992458562</v>
+        <v>0.2308754647560251</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.01181776191152084</v>
+        <v>0.1914852519753912</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>1.32685388485254</v>
+        <v>24.53505366686255</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -26380,19 +26380,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>9.601332243228422e-05</v>
+        <v>0.03406749380681216</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.00780972260480095</v>
+        <v>0.146950580273663</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.01068584628189183</v>
+        <v>0.205139490666727</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.009798638805073092</v>
+        <v>0.1845738166880995</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>1.072846166768947</v>
+        <v>21.97531281743247</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -27664,19 +27664,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.004514684671383713</v>
+        <v>0.04113831825349686</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.04488304587443668</v>
+        <v>0.1377801668787181</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.08095307078881556</v>
+        <v>0.2742471685402062</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.06719140325505721</v>
+        <v>0.2028258323130879</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>7.624689627706626</v>
+        <v>25.09454205865735</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.004233676707906693</v>
+        <v>0.04358375156416795</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.04370332809499319</v>
+        <v>0.1368005707400476</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.07789120348924737</v>
+        <v>0.2907827019720263</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.06506670967481522</v>
+        <v>0.2087672186052397</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>7.369230013606014</v>
+        <v>24.91057501013136</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -28976,19 +28976,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.002582452554968695</v>
+        <v>0.0381418034392564</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.03592060236116754</v>
+        <v>0.1374068262547268</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.04926472141522862</v>
+        <v>0.2285044802011466</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.05081783697648588</v>
+        <v>0.1952992663561653</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>4.999594455065064</v>
+        <v>22.5907030955483</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -29006,19 +29006,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.00246019861729254</v>
+        <v>0.03579435691763709</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.03601510489323051</v>
+        <v>0.1332000726735864</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.04851128792034116</v>
+        <v>0.2163857600234187</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.04960038928569553</v>
+        <v>0.1891939663880355</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>4.937807798398258</v>
+        <v>21.73922264810598</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">

--- a/data/performance_sheets_option2/window3/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option2/window3/BA47 Overall Model Peformance Results.xlsx
@@ -1158,23 +1158,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 200}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.02821789379289999</v>
+        <v>0.03046364930091665</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1385456533353092</v>
+        <v>0.1136548860311161</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1851045031404543</v>
+        <v>0.1497014719173068</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.167981825781541</v>
+        <v>0.1745383891896469</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>21.12458799111075</v>
+        <v>17.01617802345659</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -1188,23 +1188,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 200}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.02357028139626367</v>
+        <v>0.02932650738922596</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1156920885822566</v>
+        <v>0.1134426194605031</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1514837698054686</v>
+        <v>0.1508378847155455</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1535261586709694</v>
+        <v>0.1712498390925549</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>17.12729000988461</v>
+        <v>16.91878597142546</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -1220,23 +1220,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearRegression()}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.009890393632261889</v>
+        <v>0.04638774834988122</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07716239985938217</v>
+        <v>0.1901857196090854</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1048602246011035</v>
+        <v>0.2841906860471947</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.09945045818025118</v>
+        <v>0.2153781519789814</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>10.77211330156281</v>
+        <v>30.05633558873446</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -1250,23 +1250,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+          <t>{'final_estimator': LinearRegression()}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.02716994418788552</v>
+        <v>0.05305938206887486</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1286117344213913</v>
+        <v>0.1922611215610592</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.1628233632604213</v>
+        <v>0.2773274877908251</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.1648330797743145</v>
+        <v>0.2303462221719186</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>18.19226260754601</v>
+        <v>30.97245177825625</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -1286,19 +1286,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0396494621076318</v>
+        <v>0.0257812941709946</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1470163728875122</v>
+        <v>0.115870974434425</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1932988811718289</v>
+        <v>0.1672376221365466</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1991217268598075</v>
+        <v>0.1605655447815458</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>23.58036597373403</v>
+        <v>18.97634882774262</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -1316,19 +1316,19 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.03536005889571182</v>
+        <v>0.03009849899976459</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1469572205787142</v>
+        <v>0.1370046881753147</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.1888127833578952</v>
+        <v>0.1892574314921692</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.1880427049787144</v>
+        <v>0.1734891898642811</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>21.21716892169941</v>
+        <v>20.50390236577406</v>
       </c>
     </row>
     <row r="16" ht="121.5" customHeight="1">
@@ -2441,19 +2441,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2503045596954094</v>
+        <v>0.9346871795482063</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.4205064629857364</v>
+        <v>0.8303012636030682</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1650867830184104</v>
+        <v>0.3584919015134329</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.5003044669952582</v>
+        <v>0.9667922111540858</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>17.57253275831635</v>
+        <v>39.73376407569538</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -2471,19 +2471,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.5424936241338881</v>
+        <v>0.7304094201515484</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.5940548170399905</v>
+        <v>0.6833309192151819</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2305802511840812</v>
+        <v>0.3031921948344098</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.7365416649001523</v>
+        <v>0.8546399359680944</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>26.33320846476349</v>
+        <v>32.0579241619</v>
       </c>
     </row>
     <row r="14">
@@ -2503,19 +2503,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6742717316293358</v>
+        <v>1.235071119512034</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6799640123859835</v>
+        <v>0.8775450498959342</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2890951666560383</v>
+        <v>0.4357175887315258</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8211405066304645</v>
+        <v>1.111337536265213</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>28.10964629980228</v>
+        <v>41.82240413104276</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -2529,23 +2529,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.6010198460340449</v>
+        <v>0.2660628515071601</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.6623926343441987</v>
+        <v>0.3370432143850687</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.2823925063772501</v>
+        <v>0.2103171412456388</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.7752546975246554</v>
+        <v>0.5158128066529176</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>26.61225460467416</v>
+        <v>14.65164275848452</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -2565,19 +2565,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2099515013299361</v>
+        <v>0.2620230701153806</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3545270103927367</v>
+        <v>0.3985165809900031</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1554520811534604</v>
+        <v>0.2071915573085388</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4582046500527206</v>
+        <v>0.5118818907867132</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>14.32222888003724</v>
+        <v>17.19658352606029</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -2591,23 +2591,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 5, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 15, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.1953416481346125</v>
+        <v>0.3251862340547906</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.342083278244558</v>
+        <v>0.4584969469834475</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.1470890866218519</v>
+        <v>0.2349532642162839</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.4419747143611413</v>
+        <v>0.5702510272281766</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>13.86321933717597</v>
+        <v>19.60915782154522</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -3749,23 +3749,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2382062891308186</v>
+        <v>0.9252595669985629</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3960136663667142</v>
+        <v>0.7531584264632579</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1438305799016356</v>
+        <v>0.2858051966372622</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.4880638166580459</v>
+        <v>0.9619041360751928</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>16.25741282234345</v>
+        <v>35.2311754470723</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -3779,23 +3779,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.5117506526463595</v>
+        <v>0.7014839916162522</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.5515745487056173</v>
+        <v>0.6578543952664423</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2031275451842583</v>
+        <v>0.2490521774538591</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.7153674948209204</v>
+        <v>0.8375464116192322</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>24.40317416331813</v>
+        <v>29.50553967827861</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -3811,53 +3811,53 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
+          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.8579534288994148</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.7699435005368503</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.3176362745548143</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.9262577551089194</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>34.08602180819737</v>
+      </c>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Stacking Regressor</t>
+        </is>
+      </c>
+      <c r="J14" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K14" s="8" t="inlineStr">
+        <is>
           <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
-        <v>0.3628507746375009</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>0.4667868953178131</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>0.1715961063250794</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>0.6023709609845921</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>18.38070916880978</v>
-      </c>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Stacking Regressor</t>
-        </is>
-      </c>
-      <c r="J14" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K14" s="8" t="inlineStr">
-        <is>
-          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
-        </is>
-      </c>
       <c r="L14" s="8" t="n">
-        <v>1.586565428181118</v>
+        <v>0.7702911576352766</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>1.14402142735721</v>
+        <v>0.7556047155608021</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.4170278149970758</v>
+        <v>0.2976696901879847</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>1.259589388722022</v>
+        <v>0.8776623255189188</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>53.27617607293192</v>
+        <v>33.42218166721972</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -3877,19 +3877,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1635245149188788</v>
+        <v>0.1850281919494986</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3360080777608856</v>
+        <v>0.3397500618271515</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1212795443322353</v>
+        <v>0.1409581880764402</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4043816451310306</v>
+        <v>0.4301490345792939</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>12.84095080587134</v>
+        <v>13.6306006374651</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -3903,23 +3903,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.6862533615030815</v>
+        <v>0.2124207614351498</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.5530357048321376</v>
+        <v>0.3736467593918879</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.2059431961730487</v>
+        <v>0.1541890321862665</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.8284041051944887</v>
+        <v>0.4608912685603296</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>25.64670096364963</v>
+        <v>14.99901766651424</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -5061,23 +5061,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 50}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.4451392587638142</v>
+        <v>1.23341930304891</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.6257893083173726</v>
+        <v>0.999041697691294</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2225143384144811</v>
+        <v>0.3577662103366836</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.6671875738979363</v>
+        <v>1.11059412165242</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>25.44180102105928</v>
+        <v>45.84951646667243</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -5095,19 +5095,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.6532148836160618</v>
+        <v>1.0933452443874</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.7643073657535737</v>
+        <v>0.951372229365958</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2725607330623244</v>
+        <v>0.3504724188196796</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.8082171017839587</v>
+        <v>1.045631505066388</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>32.18153669825107</v>
+        <v>45.03125613762206</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -5123,53 +5123,53 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.1687396116301285</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.3696630845706277</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.1382442984851785</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.4107792736131273</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>13.95639556045671</v>
+      </c>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Stacking Regressor</t>
+        </is>
+      </c>
+      <c r="J14" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K14" s="8" t="inlineStr">
+        <is>
           <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
-        <v>7.473884192309715e-05</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>0.007912645919432373</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>0.002793415485591434</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>0.008645162920564144</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>0.2788825811832166</v>
-      </c>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Stacking Regressor</t>
-        </is>
-      </c>
-      <c r="J14" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K14" s="8" t="inlineStr">
-        <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
-        </is>
-      </c>
       <c r="L14" s="8" t="n">
-        <v>0.2835704940766048</v>
+        <v>0.1459449997102791</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.4799716452899362</v>
+        <v>0.3250036757912705</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.1679744585389702</v>
+        <v>0.1143927896441901</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.5325133745518555</v>
+        <v>0.3820274855429634</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>18.69995390713679</v>
+        <v>12.338651343856</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -5185,23 +5185,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 5, 'min_impurity_decrease': 2, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 20, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7804483265465989</v>
+        <v>0.09839690795717393</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8081100964499517</v>
+        <v>0.2530995503258416</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.28701129046679</v>
+        <v>0.08883622135361884</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8834298650977331</v>
+        <v>0.31368281425219</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>34.52910710592393</v>
+        <v>9.426963641927673</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -5215,23 +5215,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 5, 'min_impurity_decrease': 2, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 20, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.5559771930407077</v>
+        <v>0.09679133711531576</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.6680133177140994</v>
+        <v>0.2630340858983123</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.2442995961491017</v>
+        <v>0.09265354651404613</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.7456387818781341</v>
+        <v>0.3111130616276272</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>28.98654240184395</v>
+        <v>9.814409592804118</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -6371,23 +6371,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.06828906907754269</v>
+        <v>0.02161260933592056</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1660031454688604</v>
+        <v>0.09743880180051691</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.404716770989868</v>
+        <v>0.1290066894198378</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.26132177306444</v>
+        <v>0.1470122761401937</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>30.96782358708862</v>
+        <v>14.5835589895437</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -6401,23 +6401,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.06716504698153289</v>
+        <v>0.02674447335596085</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1665150944084904</v>
+        <v>0.09869700587889187</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>1.396522440531627</v>
+        <v>0.1357376457692827</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2591622020695396</v>
+        <v>0.163537376021388</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>31.18378620901696</v>
+        <v>15.98801843220291</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -6433,23 +6433,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05760261576273392</v>
+        <v>0.01718858849210396</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1453050101850462</v>
+        <v>0.09050194761273221</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.354148316875703</v>
+        <v>0.1159237617324707</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2400054494438281</v>
+        <v>0.1311052573015436</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>28.62232494390161</v>
+        <v>12.6382441225293</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -6463,23 +6463,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearRegression()}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.06312743794671924</v>
+        <v>0.0413064290936208</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1568151349877399</v>
+        <v>0.1835673791264252</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>1.413957698251817</v>
+        <v>0.2721341532167842</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2512517421764857</v>
+        <v>0.20323983146426</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>29.88357244860168</v>
+        <v>29.31854229072338</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -6499,19 +6499,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06463203557576735</v>
+        <v>0.04002581596642316</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.184330598493316</v>
+        <v>0.1398352616092666</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.416011776441965</v>
+        <v>0.1868020736253424</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2542283138750823</v>
+        <v>0.2000645295059151</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>33.71111611898986</v>
+        <v>22.26958371865903</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -6525,23 +6525,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.05817360983179948</v>
+        <v>0.02764083537825375</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1620114341350009</v>
+        <v>0.1214314762471235</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>1.339526699756952</v>
+        <v>0.1758412298525902</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2411920600513199</v>
+        <v>0.1662553318791724</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>31.27637477552414</v>
+        <v>20.65450042882216</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -7681,23 +7681,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 50}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.05480290474992824</v>
+        <v>0.01749893262689449</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1362663846676322</v>
+        <v>0.09154207790997296</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.370630847539322</v>
+        <v>0.161341710624874</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.234100202370541</v>
+        <v>0.1322835312005787</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>26.85803945067036</v>
+        <v>15.0337284888342</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -7715,19 +7715,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.0537431560805981</v>
+        <v>0.01000337497487254</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1381492807053857</v>
+        <v>0.07125887460400848</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>1.354240350879369</v>
+        <v>0.115856819812284</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2318257019413467</v>
+        <v>0.100016873450796</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>27.35894372480637</v>
+        <v>11.37178662439993</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -7743,23 +7743,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04788222505723044</v>
+        <v>0.06855399417202694</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1515557777026325</v>
+        <v>0.2109415536419822</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.23088470880763</v>
+        <v>0.485467698898874</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2188200746212066</v>
+        <v>0.2618281768107225</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>29.96372445163075</v>
+        <v>33.55081958629537</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -7773,23 +7773,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+          <t>{'final_estimator': LinearRegression()}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.04701902777969352</v>
+        <v>0.05329949528571234</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1402918004715599</v>
+        <v>0.1768680119155057</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>1.222863870600509</v>
+        <v>0.3665965422560136</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2168387137475537</v>
+        <v>0.2308668345295884</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>28.25125200645364</v>
+        <v>29.25155076945522</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -7805,23 +7805,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05826700863327802</v>
+        <v>0.04156110937216602</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1482019798959517</v>
+        <v>0.1645402199575699</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.413983021228212</v>
+        <v>0.3299794794603509</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2413856015450756</v>
+        <v>0.2038654197556957</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>28.89624288063163</v>
+        <v>27.25252145094798</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -7835,23 +7835,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.0576852460106272</v>
+        <v>0.0361715853422324</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1459195483924369</v>
+        <v>0.1531733629484055</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>1.409126055928135</v>
+        <v>0.2974900027430088</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2401775301951188</v>
+        <v>0.1901882891826739</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>28.62443379781025</v>
+        <v>25.49028584132957</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -8991,23 +8991,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 200}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.0520916626925757</v>
+        <v>0.02633306103833086</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1279765056686235</v>
+        <v>0.1114482754160599</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.366970018456912</v>
+        <v>0.2459793176449836</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2282359802760636</v>
+        <v>0.1622746469363926</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>24.84791522305992</v>
+        <v>20.58050237612569</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -9021,23 +9021,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 200}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.04530497696439843</v>
+        <v>0.02668940807514148</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.125414378281398</v>
+        <v>0.1114611334531746</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>1.28017528488641</v>
+        <v>0.2432089964447599</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2128496581261018</v>
+        <v>0.1633689324049756</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>24.96152847804927</v>
+        <v>20.58948397042973</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -9057,19 +9057,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03577590325310855</v>
+        <v>0.02952577115745082</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1074193864310488</v>
+        <v>0.1154175068167712</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.151520203632777</v>
+        <v>0.2767764126297571</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1891451909330727</v>
+        <v>0.1718306467352399</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>22.21950755272465</v>
+        <v>21.56672454276475</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -9083,23 +9083,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.04228271942426</v>
+        <v>0.07962184084895978</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1164861365816433</v>
+        <v>0.1827535394481951</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>1.242555747244803</v>
+        <v>0.6584572113626347</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2056276232033527</v>
+        <v>0.2821734233569132</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>25.47366266223805</v>
+        <v>29.78837450496368</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -9115,23 +9115,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06470720247948647</v>
+        <v>0.02339569219093426</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1390424096929045</v>
+        <v>0.1108824276975187</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.448519650549244</v>
+        <v>0.2632930099606108</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2543761043798856</v>
+        <v>0.1529565042452731</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>26.02309444342324</v>
+        <v>20.89928839906655</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -9145,23 +9145,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.0426215961118532</v>
+        <v>0.02295701339814057</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1221650904190383</v>
+        <v>0.1110132914656184</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>1.264885645703349</v>
+        <v>0.2647885029881293</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2064499845285855</v>
+        <v>0.1515157199703733</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>24.88835064664134</v>
+        <v>20.93821830305077</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -10301,23 +10301,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.5897739999535699</v>
+        <v>0.2329046037340035</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.351050137262519</v>
+        <v>0.2974518622897937</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6089806787466875</v>
+        <v>0.1048698516813236</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.7679674471965396</v>
+        <v>0.4826019102055062</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>17.21938146302696</v>
+        <v>12.15197102465478</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -10331,23 +10331,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.5982271100977514</v>
+        <v>0.1199981087015649</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.3445360015796525</v>
+        <v>0.2292159150430647</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.6133209847854537</v>
+        <v>0.08009005688443202</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.7734514271095189</v>
+        <v>0.3464074316488676</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>16.92896981904583</v>
+        <v>8.77770285480902</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -10363,23 +10363,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5673362959913755</v>
+        <v>0.1705033681035756</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3568709883390723</v>
+        <v>0.2724691353308024</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5994069539090118</v>
+        <v>0.09964385691885438</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7532172966623745</v>
+        <v>0.4129205348533487</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>17.60470564064571</v>
+        <v>11.08720223689386</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -10393,23 +10393,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.594137320691759</v>
+        <v>0.03440218968264236</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.3538399458924584</v>
+        <v>0.1530945490695095</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.615965863764205</v>
+        <v>0.05693372878531627</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.7708030362497017</v>
+        <v>0.1854782728047745</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>17.38849916325084</v>
+        <v>5.642534731824987</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -10425,23 +10425,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6116409231183072</v>
+        <v>0.1292432974729177</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3818336344793442</v>
+        <v>0.2856864772524989</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6147326023762084</v>
+        <v>0.09975514128997946</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.782074755453919</v>
+        <v>0.3595042384630781</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>18.29086160451546</v>
+        <v>10.75314331474718</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -10455,23 +10455,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.60577393445362</v>
+        <v>0.1131285358496742</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.4229768509831224</v>
+        <v>0.2713303590339919</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.6028621531859975</v>
+        <v>0.0949777399930976</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.7783148042107513</v>
+        <v>0.3363458574884998</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>19.89119695134091</v>
+        <v>10.16206465039076</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -11611,53 +11611,53 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.1189815545003071</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.2549437174736118</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.09975963975747951</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.3449370297609509</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>10.84385984635232</v>
+      </c>
+      <c r="I13" s="9" t="inlineStr">
+        <is>
+          <t>Voting Regressor</t>
+        </is>
+      </c>
+      <c r="J13" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K13" s="8" t="inlineStr">
+        <is>
           <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
-        <v>0.5638222180446911</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>0.3181798391100712</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>0.6147129928437718</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>0.7508809613012513</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>15.89996211676155</v>
-      </c>
-      <c r="I13" s="9" t="inlineStr">
-        <is>
-          <t>Voting Regressor</t>
-        </is>
-      </c>
-      <c r="J13" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K13" s="8" t="inlineStr">
-        <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
-        </is>
-      </c>
       <c r="L13" s="8" t="n">
-        <v>0.5952748253101019</v>
+        <v>0.08265752670562461</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.3307481497246637</v>
+        <v>0.2041500059744961</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.6326323190265714</v>
+        <v>0.0812616680918602</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.7715405532505093</v>
+        <v>0.2875022203490342</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>16.2991249276358</v>
+        <v>8.334499412910157</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -11673,23 +11673,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5892991315044958</v>
+        <v>0.1887981063128755</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4396640718377642</v>
+        <v>0.2515029322066964</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6257725089533416</v>
+        <v>0.1277724997030302</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.767658212686151</v>
+        <v>0.4345090405421681</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>20.80013069607098</v>
+        <v>10.20734003412481</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -11703,23 +11703,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.4123402444836489</v>
+        <v>0.1643806079965447</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.3743354301890379</v>
+        <v>0.2532060243273686</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.5052027758493444</v>
+        <v>0.1223193697057624</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.6421372473884761</v>
+        <v>0.4054387845243036</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>19.02729388181324</v>
+        <v>10.17212386065725</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -11735,23 +11735,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5171917113306</v>
+        <v>0.1369285028750958</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3288564746206623</v>
+        <v>0.3008138747403374</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5899743561615779</v>
+        <v>0.1214166269860398</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7191604211374539</v>
+        <v>0.3700385153941354</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>16.44589294808549</v>
+        <v>12.05442487299979</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -11765,23 +11765,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.5968899115508602</v>
+        <v>0.1353414925087383</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.3852039110905052</v>
+        <v>0.299324787020874</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.6078598345095623</v>
+        <v>0.1215794243587326</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.7725865074869352</v>
+        <v>0.3678878803504382</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>18.48797161606008</v>
+        <v>11.98137654779937</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -12921,23 +12921,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.4243254464043574</v>
+        <v>0.1216135514650368</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2763843735385458</v>
+        <v>0.2569477740519888</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2668991908860667</v>
+        <v>0.1285501150305921</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.651402676080132</v>
+        <v>0.3487313456875318</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>13.81922875595015</v>
+        <v>11.50487242401186</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -12951,23 +12951,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.4388605566667415</v>
+        <v>0.3083129489801701</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.2962060538075965</v>
+        <v>0.3347786394373977</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2768308380110237</v>
+        <v>0.1570420640231699</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.6624655135678699</v>
+        <v>0.5552593528975177</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>14.73888942185761</v>
+        <v>15.50640177541737</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -12987,19 +12987,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4833110480804031</v>
+        <v>0.2472810124192789</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3323668811171169</v>
+        <v>0.2976269317637036</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3016166908981198</v>
+        <v>0.1940413041960925</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6952057595276402</v>
+        <v>0.4972735790480718</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>16.14035095198482</v>
+        <v>13.06823173503927</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -13013,23 +13013,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.5892598663392852</v>
+        <v>1.584902586307721</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.4136732487358717</v>
+        <v>0.8750195974611941</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.3399187290895173</v>
+        <v>0.4114657102186784</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.7676326376199003</v>
+        <v>1.258929142687435</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>19.1459332113692</v>
+        <v>44.90379649058396</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -13045,23 +13045,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 5, 'min_samples_leaf': 5, 'min_impurity_decrease': 1, 'max_leaf_nodes': 20, 'max_features': 'log2', 'max_depth': 10, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4511900567343961</v>
+        <v>0.2289489400646182</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3610975982472611</v>
+        <v>0.3662269087712687</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3000794451483995</v>
+        <v>0.1908696501017333</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6717068234984636</v>
+        <v>0.4784860918194155</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>17.27654479975656</v>
+        <v>15.92338742249128</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -13075,23 +13075,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 5, 'min_samples_leaf': 5, 'min_impurity_decrease': 1, 'max_leaf_nodes': 20, 'max_features': 'log2', 'max_depth': 10, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.4474893353868731</v>
+        <v>0.2936843716270911</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.3447072709860315</v>
+        <v>0.4130317823209942</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.2935138340745098</v>
+        <v>0.2145091208340552</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.6689464368593894</v>
+        <v>0.5419265371128186</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>16.65308404700092</v>
+        <v>17.79565930903352</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -14141,23 +14141,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.03009486196301656</v>
+        <v>0.03245911098676284</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1390092279535671</v>
+        <v>0.1413909436312518</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1882660894529745</v>
+        <v>0.1944991283929985</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1734787075205962</v>
+        <v>0.1801641223628135</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>20.1994281026552</v>
+        <v>21.73871230573883</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -14185,23 +14185,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03685062537114835</v>
+        <v>0.02227625651528994</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1438073095156766</v>
+        <v>0.1289894138720018</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1848184087459747</v>
+        <v>0.187310539940079</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1919651670776455</v>
+        <v>0.1492523249912374</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>21.70756414417034</v>
+        <v>19.32974052599366</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -14233,19 +14233,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03361688533772896</v>
+        <v>0.03095637177395168</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1416382993051394</v>
+        <v>0.1397152048836811</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1822977193612817</v>
+        <v>0.1923473755034316</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1833490805478145</v>
+        <v>0.1759442291578547</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>20.34104848729243</v>
+        <v>20.9563168258842</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -15253,23 +15253,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.03202663670239734</v>
+        <v>0.02449462358915522</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1164685606459949</v>
+        <v>0.1113721228514606</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1674561545586678</v>
+        <v>0.239683834078657</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1789598745596268</v>
+        <v>0.1565075831682134</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>18.13235273608843</v>
+        <v>19.99800928842665</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -15283,23 +15283,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.03199583570573197</v>
+        <v>0.02268900459122946</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1179217733880048</v>
+        <v>0.105980719494619</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1682568430489785</v>
+        <v>0.2274921086695292</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1788737982649554</v>
+        <v>0.1506286977678206</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>18.22699699429581</v>
+        <v>19.10887806415535</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -15315,23 +15315,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07406428434505442</v>
+        <v>0.04351065677024694</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1689621719383237</v>
+        <v>0.153086431405485</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4973707245425751</v>
+        <v>0.5059637315599371</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2721475415010292</v>
+        <v>0.2085920822328761</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>25.16359572199364</v>
+        <v>26.80450366642897</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -15345,23 +15345,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.09210347834777445</v>
+        <v>0.04814068527561413</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2177711534603289</v>
+        <v>0.1801710473564731</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.5586255547204305</v>
+        <v>0.4591327972716455</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.3034855488285636</v>
+        <v>0.2194098568333112</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>35.93618284010698</v>
+        <v>31.51179440081126</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -15377,23 +15377,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 200, 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 2, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 20, 'learning_rate': 0.5}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03356568759170706</v>
+        <v>0.05358482875635333</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1275215698063292</v>
+        <v>0.1847798958405945</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1786801426428051</v>
+        <v>0.4966655473809958</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1832094091243871</v>
+        <v>0.2314839708410786</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>19.35344549717325</v>
+        <v>31.88538746614789</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -15407,23 +15407,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.03425538072017113</v>
+        <v>0.02473034123261517</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1319349691448008</v>
+        <v>0.1170156905984843</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.1796863093991801</v>
+        <v>0.3144508061242917</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.185082091840813</v>
+        <v>0.1572588351496194</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>19.97839325382581</v>
+        <v>21.46072408050519</v>
       </c>
     </row>
     <row r="16" ht="121.5" customHeight="1">
@@ -16437,23 +16437,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04198719632921865</v>
+        <v>0.0537921351518969</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1609491555414681</v>
+        <v>0.1734281922950354</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2261998852272687</v>
+        <v>0.2989876794209383</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.204907775180003</v>
+        <v>0.2319313155912692</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>25.86554632923177</v>
+        <v>27.68912390854759</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -16485,19 +16485,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02699209703383594</v>
+        <v>0.03768251158958005</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1232599065521592</v>
+        <v>0.1376236021203962</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1787075717395616</v>
+        <v>0.2503811763411547</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1642927175313499</v>
+        <v>0.1941198382174786</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>18.75669416359337</v>
+        <v>23.03578287095196</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -16529,19 +16529,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03928414133125136</v>
+        <v>0.04179045613419914</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1583265539750578</v>
+        <v>0.1639137618272858</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2457944690059714</v>
+        <v>0.3302368526445421</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1982022737792162</v>
+        <v>0.2044271413834257</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>24.28600248719698</v>
+        <v>27.1309544457224</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -17459,23 +17459,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.1830847045894806</v>
+        <v>0.02772529355435136</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3151033023939034</v>
+        <v>0.1264981764137836</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4740755012444533</v>
+        <v>0.3473468822485078</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.4278839849649442</v>
+        <v>0.1665091395520119</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>59.24949824383155</v>
+        <v>23.88827005821696</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -17507,19 +17507,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02367516765155547</v>
+        <v>0.03361519535049854</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1244824465744634</v>
+        <v>0.1517300962523192</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2570998624637615</v>
+        <v>0.3207228159928225</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1538673703276802</v>
+        <v>0.1833444718296642</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>21.32768341231823</v>
+        <v>27.65660226348858</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -17547,23 +17547,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05016420995472174</v>
+        <v>0.02686092782256584</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1779620615006171</v>
+        <v>0.1335078391455402</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3714125642462172</v>
+        <v>0.3702914003480952</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2239736813885099</v>
+        <v>0.1638930377489106</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>28.92868340338037</v>
+        <v>24.89119452393219</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -18485,19 +18485,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.5469238103235091</v>
+        <v>0.5395027799708716</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.5602269093220942</v>
+        <v>0.5430697233969125</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2065291842097828</v>
+        <v>0.1976463924486115</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.7395429739531768</v>
+        <v>0.7345085295426266</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>25.86896496864306</v>
+        <v>23.29113563566716</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -18525,23 +18525,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03451689706710531</v>
+        <v>0.7782261724454311</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1436056282200177</v>
+        <v>0.5510696130408188</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05316673857406447</v>
+        <v>0.1903056287087572</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1857872360177235</v>
+        <v>0.882171282940808</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>5.155784225975657</v>
+        <v>25.62632034999663</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -18573,19 +18573,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1082980623074414</v>
+        <v>0.1459084282459511</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2802252114468286</v>
+        <v>0.3240181310581783</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09708791544384833</v>
+        <v>0.1138859677691047</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3290867094056541</v>
+        <v>0.381979617579199</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>10.36287192429625</v>
+        <v>12.28953401473836</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -19503,23 +19503,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>4.309272037069189</v>
+        <v>2.350622807384795</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1.817178932034244</v>
+        <v>1.121795417839648</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6822351767618569</v>
+        <v>0.4196199484657956</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>2.075878618096248</v>
+        <v>1.533174095588885</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>105.10300227495</v>
+        <v>66.51077759657153</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -19551,19 +19551,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1393562060085375</v>
+        <v>0.1496653633596876</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2898854781649484</v>
+        <v>0.2772044716303269</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1171002852256915</v>
+        <v>0.1291071426950517</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3733044414530016</v>
+        <v>0.3868660793604004</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>10.52184576249816</v>
+        <v>10.93101915364497</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -19595,19 +19595,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1836642146283114</v>
+        <v>0.2028627298497859</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3690558727321478</v>
+        <v>0.3679380940430051</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.133249357741656</v>
+        <v>0.1511943625908803</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4285606312160642</v>
+        <v>0.4504028528437469</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>14.19617340557005</v>
+        <v>14.7671750326302</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -20525,23 +20525,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>5.010529660908968</v>
+        <v>2.33173407882486</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1.642809383423928</v>
+        <v>1.057142337005474</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6382861155031918</v>
+        <v>0.4791115882491478</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>2.238421242954276</v>
+        <v>1.527001663006579</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>75.22176279634219</v>
+        <v>60.73279935289651</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -20569,23 +20569,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearRegression()}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7841906749044149</v>
+        <v>0.3866835756977508</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7114096050217351</v>
+        <v>0.3591620371728874</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.310594159270943</v>
+        <v>0.2426556376748139</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8855454109781242</v>
+        <v>0.621838866345415</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>25.5006162832859</v>
+        <v>14.73025320562691</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -20617,19 +20617,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2119050558250883</v>
+        <v>0.256757940523774</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3644712477932537</v>
+        <v>0.3956240042920163</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1582971220424202</v>
+        <v>0.2058923456621904</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4603314629971411</v>
+        <v>0.506712877795477</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>14.72852621507966</v>
+        <v>17.09626972320381</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -21637,23 +21637,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.02215333849899682</v>
+        <v>0.0141483885757666</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1039239150284761</v>
+        <v>0.08930075573681601</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1367754526310311</v>
+        <v>0.1811075798383205</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1488399761455128</v>
+        <v>0.1189469990195911</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>14.91800545121162</v>
+        <v>15.0771776280465</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -21671,19 +21671,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.02265053509902282</v>
+        <v>0.01309797007560126</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1056080763682137</v>
+        <v>0.08512526033137689</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1406283479067658</v>
+        <v>0.1659169364114917</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1505009471698528</v>
+        <v>0.1144463633131313</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>15.1776347570151</v>
+        <v>14.28464579211904</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -21703,19 +21703,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02788632626805512</v>
+        <v>0.1051411028960297</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1289690328526019</v>
+        <v>0.2839721351601102</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.20325910539491</v>
+        <v>0.6376498058963372</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1669919946226618</v>
+        <v>0.3242546883177324</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>19.62532934966739</v>
+        <v>44.96096465896552</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -21729,23 +21729,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.05681180683986995</v>
+        <v>0.03876070119206514</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1762971568999051</v>
+        <v>0.1375815923114078</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.318596080207506</v>
+        <v>0.2571619020452632</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2383522746689654</v>
+        <v>0.1968773760290022</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>30.53856824733273</v>
+        <v>22.99562959637375</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -21761,53 +21761,53 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
+          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.03668219823924682</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.1471828207566609</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.2688303111824782</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.191525972753689</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>25.08578070684149</v>
+      </c>
+      <c r="I15" s="9" t="inlineStr">
+        <is>
+          <t>Gradient Boosting Regressor</t>
+        </is>
+      </c>
+      <c r="J15" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K15" s="8" t="inlineStr">
+        <is>
           <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n">
-        <v>0.03862129749547437</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>0.1564013768976993</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>0.2415489555737164</v>
-      </c>
-      <c r="G15" s="5" t="n">
-        <v>0.1965230202685537</v>
-      </c>
-      <c r="H15" s="5" t="n">
-        <v>23.98007015450338</v>
-      </c>
-      <c r="I15" s="9" t="inlineStr">
-        <is>
-          <t>Gradient Boosting Regressor</t>
-        </is>
-      </c>
-      <c r="J15" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K15" s="8" t="inlineStr">
-        <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
-        </is>
-      </c>
       <c r="L15" s="8" t="n">
-        <v>0.03928414133125136</v>
+        <v>0.04076794323157163</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1583265539750578</v>
+        <v>0.1619148430484034</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.2457944690059714</v>
+        <v>0.3286112586470027</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.1982022737792162</v>
+        <v>0.2019107308479954</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>24.28600248719698</v>
+        <v>26.80133253641297</v>
       </c>
     </row>
     <row r="16" ht="121.5" customHeight="1">
@@ -22911,23 +22911,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.09227796100915821</v>
+        <v>0.1916426369300062</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.205424006771278</v>
+        <v>0.2727925269379383</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.06975642409332185</v>
+        <v>0.09409471824352621</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.3037728773428566</v>
+        <v>0.4377700731320109</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>7.52415997685336</v>
+        <v>10.6345548993154</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -22941,23 +22941,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.06697125093826933</v>
+        <v>0.1248365041605728</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1905047569123018</v>
+        <v>0.2392713602382953</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.06542128603897431</v>
+        <v>0.08298462476435076</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2587880424947593</v>
+        <v>0.3533220969039056</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>6.943495204296035</v>
+        <v>9.090605743018301</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -22973,23 +22973,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02114102233028979</v>
+        <v>0.1121761179213552</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1126146550932104</v>
+        <v>0.2485721101371384</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03963832714667655</v>
+        <v>0.08980519070285542</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.145399526582069</v>
+        <v>0.3349270337272809</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>4.026961135715025</v>
+        <v>9.583877757223229</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -23003,23 +23003,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.06145625336661358</v>
+        <v>0.3012232270675362</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1772805811642523</v>
+        <v>0.4349773399478373</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.06028530167585641</v>
+        <v>0.155816436358798</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2479037179362455</v>
+        <v>0.5488380699874383</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>6.389093832684356</v>
+        <v>17.81224114263108</v>
       </c>
     </row>
     <row r="15" ht="42.75" customHeight="1">
@@ -23039,19 +23039,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1075141081653425</v>
+        <v>0.1253875050591118</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.265579198373935</v>
+        <v>0.2706674657797233</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09139029333893883</v>
+        <v>0.09412954821550823</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3278934402597016</v>
+        <v>0.3541009814433049</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>9.786263838085492</v>
+        <v>10.1818504597296</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -23065,23 +23065,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.06843807807443342</v>
+        <v>0.1042980980006381</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.2127556657678591</v>
+        <v>0.267709760055701</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.0753015521234775</v>
+        <v>0.09417963811745411</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2616067240619656</v>
+        <v>0.3229521605449298</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>7.772300077636547</v>
+        <v>10.01798185475153</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -24190,19 +24190,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2398024527903499</v>
+        <v>0.2147167692041222</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3800366116121982</v>
+        <v>0.3336014375908461</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1684871666052887</v>
+        <v>0.1810838412105442</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.4896962862737984</v>
+        <v>0.4633754085017052</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>15.35874254675666</v>
+        <v>14.71051264565384</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -24216,23 +24216,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.07234448555108439</v>
+        <v>0.1088538133053964</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1960454645522804</v>
+        <v>0.2505752732307748</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.08566707667609452</v>
+        <v>0.1242873537971845</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2689693022467144</v>
+        <v>0.3299300127381509</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>8.133997274971486</v>
+        <v>11.2436442256419</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -24252,19 +24252,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1729360828727185</v>
+        <v>0.2102453177837856</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2914640879171743</v>
+        <v>0.2192513262112996</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1395920902017454</v>
+        <v>0.1674281628210278</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4158558438602474</v>
+        <v>0.4585251550174598</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>11.89032531210782</v>
+        <v>10.26360850689276</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -24278,23 +24278,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.2565222437288635</v>
+        <v>0.2264583797287263</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.4028941381270844</v>
+        <v>0.2751254627706514</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.1751003326165178</v>
+        <v>0.1829295751086212</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.5064802500876648</v>
+        <v>0.4758764332562879</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>17.34327411207282</v>
+        <v>12.21442814467104</v>
       </c>
     </row>
     <row r="15" ht="42.75" customHeight="1">
@@ -24314,19 +24314,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2177642223187337</v>
+        <v>0.2851551171944787</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3720347392581498</v>
+        <v>0.412092732488449</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1612307884815137</v>
+        <v>0.2189575807626659</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4666521427345359</v>
+        <v>0.5339991734024302</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>15.02619878983708</v>
+        <v>17.69443110639568</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -24344,19 +24344,19 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.158372748563613</v>
+        <v>0.2052172000125797</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.3096871277684344</v>
+        <v>0.345653483625534</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.1342968305595437</v>
+        <v>0.1836291297726857</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.3979607374649075</v>
+        <v>0.4530090506960978</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>12.55449287450733</v>
+        <v>15.07471744271975</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -25461,23 +25461,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.1370078244359006</v>
+        <v>0.07752870628208074</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2963505055187179</v>
+        <v>0.2009907975361745</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1091680326981805</v>
+        <v>0.08203979661393576</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.3701456800178824</v>
+        <v>0.2784397713726987</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>11.39418543230788</v>
+        <v>8.167460483251404</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -25495,19 +25495,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.1079102139809386</v>
+        <v>0.07179018971515791</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.2135775653392368</v>
+        <v>0.201906455485782</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.07664592800359549</v>
+        <v>0.07741934993635258</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.3284969010218188</v>
+        <v>0.2679369136852142</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>8.294443549028397</v>
+        <v>8.069487495418675</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -25527,19 +25527,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04461938399975212</v>
+        <v>0.1073766645548191</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1193074840944512</v>
+        <v>0.1607354419601678</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05115232915415571</v>
+        <v>0.08656326539529102</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2112330087835519</v>
+        <v>0.3276837874457922</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>4.677637261453571</v>
+        <v>6.841116752111034</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -25553,23 +25553,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.2493312960807466</v>
+        <v>0.1123561025072216</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.3009416779645835</v>
+        <v>0.1790787754614219</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.1101032228518157</v>
+        <v>0.09271724160110766</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.4993308483167714</v>
+        <v>0.3351956182697226</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>12.69463139235895</v>
+        <v>7.493286560825885</v>
       </c>
     </row>
     <row r="15" ht="42.75" customHeight="1">
@@ -25589,19 +25589,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1501693528587633</v>
+        <v>0.1383970185081207</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3274075941919375</v>
+        <v>0.2930811897479759</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1195808368448076</v>
+        <v>0.1210847872603028</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3875169065457187</v>
+        <v>0.3720174975832732</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>12.48281410683203</v>
+        <v>11.74368149452271</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -25619,19 +25619,19 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.09570697258735793</v>
+        <v>0.1748648076258728</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.2565683708116451</v>
+        <v>0.3292051687997651</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.09325216511175177</v>
+        <v>0.1339584119643693</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.3093654353468692</v>
+        <v>0.4181683962542755</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>9.684550871362447</v>
+        <v>13.20048356521803</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -26738,53 +26738,53 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.04105404660965769</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1488802744399566</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.1954979877652043</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.2026179819504125</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>23.30939686867612</v>
+      </c>
+      <c r="I13" s="9" t="inlineStr">
+        <is>
+          <t>Voting Regressor</t>
+        </is>
+      </c>
+      <c r="J13" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K13" s="8" t="inlineStr">
+        <is>
           <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
-        <v>0.04676403910525208</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>0.2011469466555553</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>0.2760496189776974</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>0.2162499459080905</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>32.45097759554976</v>
-      </c>
-      <c r="I13" s="9" t="inlineStr">
-        <is>
-          <t>Voting Regressor</t>
-        </is>
-      </c>
-      <c r="J13" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K13" s="8" t="inlineStr">
-        <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
-        </is>
-      </c>
       <c r="L13" s="8" t="n">
-        <v>0.05141911310846302</v>
+        <v>0.03947600128144101</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1989783341780924</v>
+        <v>0.1534424008124921</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2614620170052657</v>
+        <v>0.2070625799383891</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2267578292109514</v>
+        <v>0.1986856846414482</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>30.98340652655246</v>
+        <v>24.61498264355269</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -26800,23 +26800,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.001561829613556769</v>
+        <v>0.04757079020816466</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03459082175394172</v>
+        <v>0.1831012893137371</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05084415660871069</v>
+        <v>0.2996294088572966</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03951999005005909</v>
+        <v>0.2181072905892067</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>5.009695760780708</v>
+        <v>26.83766583813049</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -26830,23 +26830,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.03277577800954715</v>
+        <v>0.02045396047511164</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1439722483341016</v>
+        <v>0.1109165577916157</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.1965523023180261</v>
+        <v>0.1848190572597118</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.1810408186281402</v>
+        <v>0.1430173432668627</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>20.50418065868925</v>
+        <v>16.39426447870463</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -26862,23 +26862,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 20, 'learning_rate': 1}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03117289530280035</v>
+        <v>0.03009849899976461</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1494026062257104</v>
+        <v>0.1370046881753148</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2239603241110298</v>
+        <v>0.1892574314921693</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1765584755903844</v>
+        <v>0.1734891898642812</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>24.12565751280635</v>
+        <v>20.50390236577407</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -26892,23 +26892,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.1403804268142267</v>
+        <v>0.08299579319629195</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.3144191227690513</v>
+        <v>0.2373877736602296</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.4125458331621844</v>
+        <v>0.3231846207323861</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.3746737605093619</v>
+        <v>0.2880899047108245</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>56.13455302188071</v>
+        <v>41.00682095369857</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -28056,19 +28056,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.03974542779578519</v>
+        <v>0.05897264046214613</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1679978882827709</v>
+        <v>0.181776606368392</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2910804513375337</v>
+        <v>0.4573920171201086</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1993625536448236</v>
+        <v>0.242842830781858</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>27.67202225041781</v>
+        <v>32.06679229566091</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -28082,23 +28082,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.0383282551586279</v>
+        <v>0.05637951594914507</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1489694890660377</v>
+        <v>0.1861956483677871</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2857206012989794</v>
+        <v>0.421303660744567</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1957760331568394</v>
+        <v>0.2374437111172774</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>24.39528178793136</v>
+        <v>33.1921227697986</v>
       </c>
     </row>
     <row r="14">
@@ -28118,19 +28118,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2623126291950487</v>
+        <v>0.1912002564940035</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4321485679737311</v>
+        <v>0.3762574226353873</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9151229128501495</v>
+        <v>1.067507244871881</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5121646504738967</v>
+        <v>0.4372645154754768</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>73.06936286091178</v>
+        <v>62.16054096641545</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -28148,19 +28148,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.2951433990803344</v>
+        <v>0.1487681241502576</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.458142095438453</v>
+        <v>0.3284449664768936</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.9820474035080073</v>
+        <v>0.9400810629659876</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.5432710180750805</v>
+        <v>0.3857047110812332</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>76.81354898617543</v>
+        <v>54.98948033644525</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -28176,23 +28176,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 200, 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 2, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 20, 'learning_rate': 0.5}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08640726438454895</v>
+        <v>0.05358482875635333</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2599880351981274</v>
+        <v>0.1847798958405945</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.453089035659486</v>
+        <v>0.4966655473809958</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2939511258433091</v>
+        <v>0.2314839708410786</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>46.29421620327702</v>
+        <v>31.88538746614789</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -28206,23 +28206,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 200, 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 2, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 20, 'learning_rate': 0.5}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.05016420995472174</v>
+        <v>0.05358482875635333</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1779620615006171</v>
+        <v>0.1847798958405945</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.3714125642462172</v>
+        <v>0.4966655473809958</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2239736813885099</v>
+        <v>0.2314839708410786</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>28.92868340338037</v>
+        <v>31.88538746614789</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -29364,23 +29364,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 200}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.03977272238650194</v>
+        <v>0.03689101305422884</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1538444503584589</v>
+        <v>0.1528004664839682</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2057670925521302</v>
+        <v>0.2696809857192729</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1994309965539508</v>
+        <v>0.1920703336130513</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>23.26973579291244</v>
+        <v>25.49458635405561</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -29394,23 +29394,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 50}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.02101081189714714</v>
+        <v>0.03479875178244394</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.118656496349468</v>
+        <v>0.1386228523979239</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.179662177943483</v>
+        <v>0.2545431410108685</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1449510672508041</v>
+        <v>0.1865442354575556</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>18.18535288766688</v>
+        <v>23.01743769550466</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -29430,19 +29430,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0820985291769738</v>
+        <v>0.1599853917172119</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2072111081878472</v>
+        <v>0.3412832590361269</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.41812205224434</v>
+        <v>0.7615781274364543</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2865284090225153</v>
+        <v>0.3999817392296952</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>29.06189639750212</v>
+        <v>60.67124581475552</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -29456,23 +29456,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearRegression()}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.3344263310150096</v>
+        <v>0.08203945913168022</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.4309069918248266</v>
+        <v>0.2406176463971573</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.8878551895199605</v>
+        <v>0.5453070487243633</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.5782960582737959</v>
+        <v>0.2864253116113871</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>48.46585752861683</v>
+        <v>39.22399987723148</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -29492,19 +29492,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03928414133125136</v>
+        <v>0.04179045613419914</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1583265539750578</v>
+        <v>0.1639137618272858</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2457944690059714</v>
+        <v>0.3302368526445421</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1982022737792162</v>
+        <v>0.2044271413834257</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>24.28600248719698</v>
+        <v>27.1309544457224</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -29522,19 +29522,19 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.03928414133125136</v>
+        <v>0.04179045613419914</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1583265539750578</v>
+        <v>0.1639137618272858</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.2457944690059714</v>
+        <v>0.3302368526445421</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.1982022737792162</v>
+        <v>0.2044271413834257</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>24.28600248719698</v>
+        <v>27.1309544457224</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">

--- a/data/performance_sheets_option2/window3/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option2/window3/BA47 Overall Model Peformance Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="805" firstSheet="14" activeTab="14" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="805" firstSheet="12" activeTab="12" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN1 (80-20)" sheetId="1" state="visible" r:id="rId1"/>
@@ -618,8 +618,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1933,8 +1933,8 @@
     <col width="60.75" customWidth="1" style="1" min="3" max="3"/>
     <col width="20.75" customWidth="1" style="1" min="4" max="10"/>
     <col width="60.75" customWidth="1" style="1" min="11" max="11"/>
-    <col width="20.75" customWidth="1" style="1" min="12" max="16"/>
-    <col width="20.75" customWidth="1" style="1" min="17" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="12" max="17"/>
+    <col width="20.75" customWidth="1" style="1" min="18" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3245,8 +3245,8 @@
   <cols>
     <col width="20.75" customWidth="1" style="1" min="1" max="2"/>
     <col width="60.75" customWidth="1" style="1" min="3" max="3"/>
-    <col width="20.75" customWidth="1" style="1" min="4" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="4" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4557,8 +4557,8 @@
   <cols>
     <col width="20.75" customWidth="1" style="1" min="1" max="2"/>
     <col width="60.75" customWidth="1" style="1" min="3" max="3"/>
-    <col width="20.75" customWidth="1" style="1" min="4" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="4" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5861,14 +5861,14 @@
   </sheetPr>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
       <selection activeCell="J24" sqref="J24:P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7177,8 +7177,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8487,8 +8487,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9797,8 +9797,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11107,8 +11107,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12417,8 +12417,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13727,8 +13727,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -14749,8 +14749,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -16059,8 +16059,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -17081,8 +17081,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -18103,8 +18103,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -19125,8 +19125,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -20147,8 +20147,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -21169,8 +21169,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -22479,8 +22479,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -23790,8 +23790,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -25083,8 +25083,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -26396,8 +26396,8 @@
   <cols>
     <col width="20.75" customWidth="1" style="1" min="1" max="2"/>
     <col width="60.75" customWidth="1" style="1" min="3" max="3"/>
-    <col width="20.75" customWidth="1" style="1" min="4" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="4" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -27710,8 +27710,8 @@
     <col width="60.75" customWidth="1" style="1" min="3" max="3"/>
     <col width="20.75" customWidth="1" style="1" min="4" max="10"/>
     <col width="60.75" customWidth="1" style="1" min="11" max="11"/>
-    <col width="20.75" customWidth="1" style="1" min="12" max="16"/>
-    <col width="20.75" customWidth="1" style="1" min="17" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="12" max="17"/>
+    <col width="20.75" customWidth="1" style="1" min="18" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -29022,8 +29022,8 @@
   <cols>
     <col width="20.75" customWidth="1" style="1" min="1" max="2"/>
     <col width="60.75" customWidth="1" style="1" min="3" max="3"/>
-    <col width="20.75" customWidth="1" style="1" min="4" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="4" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
